--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H2">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I2">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J2">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>2197.96275149843</v>
+        <v>1641.014146666983</v>
       </c>
       <c r="R2">
-        <v>19781.66476348587</v>
+        <v>14769.12732000284</v>
       </c>
       <c r="S2">
-        <v>0.02249438547246829</v>
+        <v>0.01558786691678434</v>
       </c>
       <c r="T2">
-        <v>0.02533152388282935</v>
+        <v>0.01687445393796308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H3">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I3">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J3">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>2352.136732556154</v>
+        <v>1990.748940861009</v>
       </c>
       <c r="R3">
-        <v>21169.23059300538</v>
+        <v>17916.74046774909</v>
       </c>
       <c r="S3">
-        <v>0.02407223248437654</v>
+        <v>0.0189099707750223</v>
       </c>
       <c r="T3">
-        <v>0.02710837923700317</v>
+        <v>0.02047075667984781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H4">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I4">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J4">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>1181.084695802092</v>
+        <v>1123.876430748559</v>
       </c>
       <c r="R4">
-        <v>10629.76226221882</v>
+        <v>10114.88787673703</v>
       </c>
       <c r="S4">
-        <v>0.01208745435057668</v>
+        <v>0.01067561560575278</v>
       </c>
       <c r="T4">
-        <v>0.01361200282350476</v>
+        <v>0.01155675659539424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H5">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I5">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J5">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>2691.513928600307</v>
+        <v>1225.671949889613</v>
       </c>
       <c r="R5">
-        <v>16149.08357160184</v>
+        <v>7354.031699337675</v>
       </c>
       <c r="S5">
-        <v>0.02754548582462455</v>
+        <v>0.01164256339734774</v>
       </c>
       <c r="T5">
-        <v>0.0206798012741043</v>
+        <v>0.008402342703127976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.90202066666667</v>
+        <v>13.458797</v>
       </c>
       <c r="H6">
-        <v>47.706062</v>
+        <v>40.376391</v>
       </c>
       <c r="I6">
-        <v>0.1000095542059895</v>
+        <v>0.06830096976102129</v>
       </c>
       <c r="J6">
-        <v>0.10228350994604</v>
+        <v>0.06973720484213804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1349.397030917709</v>
+        <v>1209.07950753711</v>
       </c>
       <c r="R6">
-        <v>12144.57327825938</v>
+        <v>10881.71556783399</v>
       </c>
       <c r="S6">
-        <v>0.0138099960739434</v>
+        <v>0.01148495306611412</v>
       </c>
       <c r="T6">
-        <v>0.01555180272859841</v>
+        <v>0.01243289492580493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J7">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>3377.402147915605</v>
+        <v>2979.345319773504</v>
       </c>
       <c r="R7">
-        <v>30396.61933124045</v>
+        <v>26814.10787796153</v>
       </c>
       <c r="S7">
-        <v>0.03456500150376195</v>
+        <v>0.02830057159354778</v>
       </c>
       <c r="T7">
-        <v>0.03892456462854867</v>
+        <v>0.03063643629515055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J8">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>3614.30676989888</v>
+        <v>3614.306769898879</v>
       </c>
       <c r="R8">
         <v>32528.76092908992</v>
       </c>
       <c r="S8">
-        <v>0.03698953025588396</v>
+        <v>0.03433202147589382</v>
       </c>
       <c r="T8">
-        <v>0.04165489073877542</v>
+        <v>0.03716570830921884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J9">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>1814.861505615957</v>
+        <v>2040.455282335829</v>
       </c>
       <c r="R9">
-        <v>16333.75355054362</v>
+        <v>18364.09754102246</v>
       </c>
       <c r="S9">
-        <v>0.01857365155921691</v>
+        <v>0.01938212748214358</v>
       </c>
       <c r="T9">
-        <v>0.02091628147119266</v>
+        <v>0.0209818841258513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J10">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>4135.795712371489</v>
+        <v>2225.2702664984</v>
       </c>
       <c r="R10">
-        <v>24814.77427422893</v>
+        <v>13351.6215989904</v>
       </c>
       <c r="S10">
-        <v>0.04232655122387422</v>
+        <v>0.02113767077420174</v>
       </c>
       <c r="T10">
-        <v>0.03177670103554418</v>
+        <v>0.01525488397436559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1536752535761215</v>
+        <v>0.1240039124627887</v>
       </c>
       <c r="J11">
-        <v>0.1571694269853278</v>
+        <v>0.1266114708898203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>2073.491203390699</v>
+        <v>2195.14583669568</v>
       </c>
       <c r="R11">
-        <v>18661.42083051629</v>
+        <v>19756.31253026112</v>
       </c>
       <c r="S11">
-        <v>0.02122051903338447</v>
+        <v>0.02085152113700174</v>
       </c>
       <c r="T11">
-        <v>0.02389698911126682</v>
+        <v>0.02257255818523405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H12">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I12">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J12">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>7612.609078576458</v>
+        <v>9329.284392314228</v>
       </c>
       <c r="R12">
-        <v>68513.48170718813</v>
+        <v>83963.55953082806</v>
       </c>
       <c r="S12">
-        <v>0.07790894679537647</v>
+        <v>0.08861815349465044</v>
       </c>
       <c r="T12">
-        <v>0.08773533061610704</v>
+        <v>0.09593249398368012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H13">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I13">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J13">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>8146.58821315468</v>
+        <v>11317.55205201143</v>
       </c>
       <c r="R13">
-        <v>73319.29391839213</v>
+        <v>101857.9684681029</v>
       </c>
       <c r="S13">
-        <v>0.08337379485946164</v>
+        <v>0.1075045547711141</v>
       </c>
       <c r="T13">
-        <v>0.09388944091268929</v>
+        <v>0.1163777357922571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H14">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I14">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J14">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>4090.66808420713</v>
+        <v>6389.318986413408</v>
       </c>
       <c r="R14">
-        <v>36816.01275786417</v>
+        <v>57503.87087772068</v>
       </c>
       <c r="S14">
-        <v>0.04186470615270764</v>
+        <v>0.06069164866822261</v>
       </c>
       <c r="T14">
-        <v>0.04714495557359982</v>
+        <v>0.06570099907436419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H15">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I15">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J15">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>9322.015741171817</v>
+        <v>6968.033892594459</v>
       </c>
       <c r="R15">
-        <v>55932.09444703091</v>
+        <v>41808.20335556675</v>
       </c>
       <c r="S15">
-        <v>0.09540335263615397</v>
+        <v>0.06618881696420086</v>
       </c>
       <c r="T15">
-        <v>0.07162416324620585</v>
+        <v>0.04776792741145985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.076396</v>
+        <v>76.51423666666666</v>
       </c>
       <c r="H16">
-        <v>165.229188</v>
+        <v>229.54271</v>
       </c>
       <c r="I16">
-        <v>0.3463815024953772</v>
+        <v>0.3882959647030583</v>
       </c>
       <c r="J16">
-        <v>0.3542573120827728</v>
+        <v>0.3964610652618627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>4673.615183498986</v>
+        <v>6873.704654919099</v>
       </c>
       <c r="R16">
-        <v>42062.53665149087</v>
+        <v>61863.3418942719</v>
       </c>
       <c r="S16">
-        <v>0.04783070205167755</v>
+        <v>0.06529279080487024</v>
       </c>
       <c r="T16">
-        <v>0.05386342173417081</v>
+        <v>0.07068190900010141</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H17">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I17">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J17">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>1465.805936129392</v>
+        <v>1484.457280004766</v>
       </c>
       <c r="R17">
-        <v>8794.83561677635</v>
+        <v>8906.743680028596</v>
       </c>
       <c r="S17">
-        <v>0.01500134783114422</v>
+        <v>0.01410074530519069</v>
       </c>
       <c r="T17">
-        <v>0.01126227701943269</v>
+        <v>0.01017639246445722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H18">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I18">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J18">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>1568.62348227618</v>
+        <v>1800.82649739802</v>
       </c>
       <c r="R18">
-        <v>9411.740893657079</v>
+        <v>10804.95898438812</v>
       </c>
       <c r="S18">
-        <v>0.0160536029318198</v>
+        <v>0.0171059121206685</v>
       </c>
       <c r="T18">
-        <v>0.01205225859790899</v>
+        <v>0.01234519675625645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H19">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I19">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J19">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>787.6570960986638</v>
+        <v>1016.655799609651</v>
       </c>
       <c r="R19">
-        <v>4725.942576591983</v>
+        <v>6099.934797657904</v>
       </c>
       <c r="S19">
-        <v>0.008061038490160689</v>
+        <v>0.009657135093368699</v>
       </c>
       <c r="T19">
-        <v>0.006051832779453288</v>
+        <v>0.00696947534796095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H20">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I20">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J20">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>1794.951752948343</v>
+        <v>1108.739770834225</v>
       </c>
       <c r="R20">
-        <v>7179.807011793371</v>
+        <v>4434.9590833369</v>
       </c>
       <c r="S20">
-        <v>0.01836989121302291</v>
+        <v>0.01053183363971155</v>
       </c>
       <c r="T20">
-        <v>0.009194142907985455</v>
+        <v>0.005067158752647618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.604946</v>
+        <v>12.174794</v>
       </c>
       <c r="H21">
-        <v>21.209892</v>
+        <v>24.349588</v>
       </c>
       <c r="I21">
-        <v>0.06669566994474985</v>
+        <v>0.06178488588843889</v>
       </c>
       <c r="J21">
-        <v>0.04547477004780721</v>
+        <v>0.04205606702633888</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>899.903411359502</v>
+        <v>1093.73028911022</v>
       </c>
       <c r="R21">
-        <v>5399.420468157012</v>
+        <v>6562.38173466132</v>
       </c>
       <c r="S21">
-        <v>0.009209789478602223</v>
+        <v>0.01038925972949944</v>
       </c>
       <c r="T21">
-        <v>0.006914258743026779</v>
+        <v>0.007497843705016644</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H22">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I22">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J22">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>7323.747822593061</v>
+        <v>8592.119168342126</v>
       </c>
       <c r="R22">
-        <v>65913.73040333755</v>
+        <v>77329.07251507913</v>
       </c>
       <c r="S22">
-        <v>0.07495268357584642</v>
+        <v>0.08161587784072181</v>
       </c>
       <c r="T22">
-        <v>0.08440620422405191</v>
+        <v>0.08835226645069356</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H23">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I23">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J23">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>7837.465062479057</v>
+        <v>10423.28134030389</v>
       </c>
       <c r="R23">
-        <v>70537.18556231151</v>
+        <v>93809.53206273497</v>
       </c>
       <c r="S23">
-        <v>0.08021016740261741</v>
+        <v>0.09900994619629595</v>
       </c>
       <c r="T23">
-        <v>0.09032679615506697</v>
+        <v>0.1071820015791012</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H24">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I24">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J24">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>3935.447251452083</v>
+        <v>5884.458853140069</v>
       </c>
       <c r="R24">
-        <v>35419.02526306875</v>
+        <v>52960.12967826062</v>
       </c>
       <c r="S24">
-        <v>0.04027614545350143</v>
+        <v>0.05589602116858237</v>
       </c>
       <c r="T24">
-        <v>0.04535603525210366</v>
+        <v>0.06050955140687268</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H25">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I25">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J25">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>8968.290868726977</v>
+        <v>6417.445867931892</v>
       </c>
       <c r="R25">
-        <v>53809.74521236186</v>
+        <v>38504.67520759135</v>
       </c>
       <c r="S25">
-        <v>0.09178326233819535</v>
+        <v>0.06095882374820883</v>
       </c>
       <c r="T25">
-        <v>0.06890637680262193</v>
+        <v>0.0439934841178283</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.98651633333333</v>
+        <v>70.46836733333333</v>
       </c>
       <c r="H26">
-        <v>158.959549</v>
+        <v>211.405102</v>
       </c>
       <c r="I26">
-        <v>0.333238019777762</v>
+        <v>0.3576142671846927</v>
       </c>
       <c r="J26">
-        <v>0.3408149809380521</v>
+        <v>0.36513419197984</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>4496.274361455744</v>
+        <v>6330.57017446142</v>
       </c>
       <c r="R26">
-        <v>40466.4692531017</v>
+        <v>56975.13157015278</v>
       </c>
       <c r="S26">
-        <v>0.04601576100760139</v>
+        <v>0.06013359823088373</v>
       </c>
       <c r="T26">
-        <v>0.05181956850420756</v>
+        <v>0.06509688842534427</v>
       </c>
     </row>
   </sheetData>
